--- a/biology/Botanique/Prosopis_nigra/Prosopis_nigra.xlsx
+++ b/biology/Botanique/Prosopis_nigra/Prosopis_nigra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prosopis nigra est un arbre de la famille des Mimosaceae, ou des Fabaceae selon la classification phylogénétique. On le trouve en Amérique du Sud, dans la région du Gran Chaco, en particulier dans la zone de transition entre le Chaco Humide et le Chaco de l'ouest), en Argentine et au Paraguay.
 On l'appelle (à tort) algarrobo, ce qui signifie caroubier. Connu comme algarrobo negro, on l'appelle aussi algarrobo dulce, algarrobo morado et algarrobo amarillo.
@@ -514,7 +526,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prosopis algarobilla var. nigra Griseb.</t>
         </is>
